--- a/docs/Quizizz_economics_spreadsheet.xlsx
+++ b/docs/Quizizz_economics_spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Create a Quizizz" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -76,7 +76,25 @@
     <t xml:space="preserve">Link of the image (optional)</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementing system before Domain Model</t>
+    <t xml:space="preserve">Define the structure of an application so that it could be tested in isolation from external devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ports and adapters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking skeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polymorphism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexagonal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexagonal architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus on implementing external system before domain model</t>
   </si>
   <si>
     <t xml:space="preserve">TDD</t>
@@ -85,9 +103,6 @@
     <t xml:space="preserve">Outside-in thinking</t>
   </si>
   <si>
-    <t xml:space="preserve">Hexagonal</t>
-  </si>
-  <si>
     <t xml:space="preserve">CQRS</t>
   </si>
   <si>
@@ -104,16 +119,77 @@
   </si>
   <si>
     <t xml:space="preserve">Test double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An example of a ________ is an interface to store single objects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is a bridge between the application and the service that is needed by the application. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is a generic term for any case where you replace a production object for testing purposes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functional process logic, data access,  computer data storage and user interface are developed and maintained as independent modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three layers architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The provision of a single interface to entities of different types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The slices include all functionality of a particular feature from the back-end to the front-end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical slices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dividing development in slices aligned to Presentation, Business and Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal slices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is a design technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstractions should not depend on details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows you to release the system regularly while the change is still in-progress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch by abstraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallel change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature toggles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A concept in software development that reflects the implied cost of  additional rework caused by choosing an easy (limited) solution now instead of using a better approach that would  take longer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is a tiny implementation of the system that performs a small  end-to-end function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -138,6 +214,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -212,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,6 +313,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,19 +325,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -257,9 +349,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -274,7 +370,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFBE5D6"/>
+          <bgColor rgb="FFE2F0D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2F0D9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -285,7 +388,20 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE5D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE5D6"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -304,6 +420,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFBE5D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE5D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE2F0D9"/>
         </patternFill>
       </fill>
@@ -311,6 +441,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE2F0D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFBE5D6"/>
         </patternFill>
       </fill>
@@ -325,6 +462,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFE2F0D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFBE5D6"/>
         </patternFill>
       </fill>
@@ -340,55 +484,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE5D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE5D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE5D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE5D6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -409,6 +504,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFBE5D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE2F0D9"/>
         </patternFill>
       </fill>
@@ -416,7 +518,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFBE5D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFE2F0D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE5D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2F0D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBE5D6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -437,42 +567,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFBE5D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE5D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBE5D6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -552,23 +647,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:O65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="117.82995951417"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,37 +694,39 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="O1" s="4"/>
     </row>
-    <row r="2" s="6" customFormat="true" ht="41.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="41.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="J2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="36.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
@@ -643,181 +743,1228 @@
         <v>22</v>
       </c>
       <c r="F3" s="0"/>
-      <c r="G3" s="1" t="n">
-        <v>2</v>
+      <c r="G3" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>30</v>
       </c>
       <c r="J3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0"/>
       <c r="G4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="J4" s="11"/>
+      <c r="H4" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A4:A1000">
+  <conditionalFormatting sqref="H19:H995;H4:H17">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(OR(NOT(ISBLANK(B4)),NOT(ISBLANK(C4)), NOT(ISBLANK(D4)),NOT(ISBLANK(E4)),NOT(ISBLANK(F4)),NOT(ISBLANK(G4)),NOT(ISBLANK(H4)),NOT(ISBLANK(I4))),ISBLANK(A4))</formula>
-    </cfRule>
+      <formula>LEN(TRIM(#ref!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E1495">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>LEN(TRIM(A4))=0</formula>
-    </cfRule>
+      <formula>AND(NOT(ISBLANK(#ref!)),NOT(ISBLANK(#ref!)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G1495;G13:G17">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H1000">
+      <formula>LEN(TRIM(#ref!))=0</formula>
+    </cfRule>
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>LEN(TRIM(H4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B1500">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(#ref!,",","")))</formula>
+    </cfRule>
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>NOT(ISBLANK(B4))</formula>
+      <formula>AND(NOT(ISBLANK(#ref!)),ISBLANK(#ref!))</formula>
     </cfRule>
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>NOT(ISBLANK(A4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C1500">
+      <formula>ISNUMBER(--SUBSTITUTE(#ref!,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>NOT(ISBLANK(C4))</formula>
+      <formula>NOT(ISBLANK(B3))</formula>
     </cfRule>
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>NOT(ISBLANK(A4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D1500">
+      <formula>NOT(ISBLANK(A3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND(NOT(ISBLANK(A4)),NOT(ISBLANK(D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E1500">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>AND(NOT(ISBLANK(A4)),NOT(ISBLANK(E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F1500">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND(NOT(ISBLANK(A4)),NOT(ISBLANK(F4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G1500">
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>LEN(TRIM(G4))=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>NOT(ISNUMBER(--SUBSTITUTE(G4,",","")))</formula>
-    </cfRule>
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>AND(NOT(ISBLANK(A4)),ISBLANK(G4))</formula>
-    </cfRule>
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
-      <formula>ISNUMBER(--SUBSTITUTE(G4,",",""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>AND(OR(NOT(ISBLANK(B3)),NOT(ISBLANK(C3)), NOT(ISBLANK(D3)),NOT(ISBLANK(E3)),NOT(ISBLANK(E3)),NOT(ISBLANK(G3)),NOT(ISBLANK(H3)),NOT(ISBLANK(I3))),ISBLANK(A3))</formula>
-    </cfRule>
+      <formula>AND(OR(NOT(ISBLANK(B6)),NOT(ISBLANK(C6)), NOT(ISBLANK(D6)),NOT(ISBLANK(E6)),NOT(ISBLANK(F6)),NOT(ISBLANK(G6)),NOT(ISBLANK(H6)),NOT(ISBLANK(I6))),ISBLANK(A6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(A6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>LEN(TRIM(A6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(B6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(A6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>NOT(ISBLANK(C6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>NOT(ISBLANK(A6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>AND(NOT(ISBLANK(A6)),NOT(ISBLANK(D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>LEN(TRIM(A3))=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>AND(LEN(B3)=0,G3=1)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND(LEN(B3)*LEN(C3)=0,NOT(ISBLANK(A3)))</formula>
-    </cfRule>
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>LEN(TRIM(B3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>LEN(TRIM(C3))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>AND(LEN(B3)*LEN(C3)=0,NOT(ISBLANK(A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>AND(LEN(B3)*LEN(G3)=0,NOT(ISBLANK(A3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="26" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>AND(NOT(ISBLANK(A6)),NOT(ISBLANK(E6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>AND(NOT(ISBLANK(A6)),NOT(ISBLANK(F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>AND(OR(NOT(ISBLANK(B5)),NOT(ISBLANK(C5)), NOT(ISBLANK(D5)),NOT(ISBLANK(E5)),NOT(ISBLANK(E5)),NOT(ISBLANK(G5)),NOT(ISBLANK(H5)),NOT(ISBLANK(I5))),ISBLANK(A5))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(A5))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+      <formula>LEN(TRIM(A5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+      <formula>LEN(TRIM(C5))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>AND(LEN(B5)*LEN(C5)=0,NOT(ISBLANK(A5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+      <formula>AND(LEN(B5)*LEN(G5)=0,NOT(ISBLANK(A5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="26" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>1</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>LEN(TRIM(G3))=0</formula>
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(D5))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>AND(LEN(B4)*LEN(C4)=0,NOT(ISBLANK(A4)))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>LEN(TRIM(D5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(E5))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>AND(LEN(A5)*LEN(B5)*LEN(C5)*LEN(D5)=0,NOT(ISBLANK(#ref!)))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+      <formula>LEN(TRIM(E5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+      <formula>AND(LEN(B5)=0,G5=1)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+      <formula>AND(LEN(B5)*LEN(C5)=0,NOT(ISBLANK(A5)))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+      <formula>LEN(TRIM(B5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(B11))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(A11))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>AND(OR(NOT(ISBLANK(B19)),NOT(ISBLANK(C19)), NOT(ISBLANK(D19)),NOT(ISBLANK(E19)),NOT(ISBLANK(F19)),NOT(ISBLANK(G19)),NOT(ISBLANK(H19)),NOT(ISBLANK(I19))),ISBLANK(A19))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(A19))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>LEN(TRIM(A19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(B3))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(A3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(B11))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(A11))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G17">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(#ref!))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(#ref!,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(#ref!)),ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(#ref!,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G17">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(#ref!))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(#ref!,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(#ref!)),ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(#ref!,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
-      <formula>LEN(TRIM(H3))&gt;0</formula>
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="expression" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="expression" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>NOT(ISBLANK(C6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>NOT(ISBLANK(A6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(C12))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(B12))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(C12))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(B12))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(D13))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(C13))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(D13))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>LEN(TRIM(D3))=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
-      <formula>AND(LEN(B2)*LEN(C2)=0,NOT(ISBLANK(A2)))</formula>
-    </cfRule>
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>LEN(TRIM(D3))&gt;0</formula>
+    <cfRule type="expression" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(D13))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(C13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>LEN(TRIM(E3))=0</formula>
-    </cfRule>
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>AND(LEN(A3)*LEN(B3)*LEN(C3)*LEN(D3)=0,NOT(ISBLANK(#REF!)))</formula>
-    </cfRule>
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
-      <formula>LEN(TRIM(E3))&gt;0</formula>
+    <cfRule type="expression" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(D5))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>AND(LEN(B4)*LEN(C4)=0,NOT(ISBLANK(A4)))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>LEN(TRIM(D5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISBLANK(#ref!))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(#ref!))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(#ref!,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(#ref!)),ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="205" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(#ref!,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" priority="206" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(#ref!))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="207" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(#ref!,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="208" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(#ref!)),ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="209" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(#ref!,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" priority="210" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(#ref!))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="211" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(#ref!,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="212" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(#ref!)),ISBLANK(#ref!))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="213" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(#ref!,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" priority="214" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>LEN(TRIM(G6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="215" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>NOT(ISNUMBER(--SUBSTITUTE(G6,",","")))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="216" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(NOT(ISBLANK(A6)),ISBLANK(G6))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="217" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>ISNUMBER(--SUBSTITUTE(G6,",",""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" priority="218" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>LEN(TRIM(#ref!))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" priority="219" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>LEN(TRIM(H5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" error="Enter a valid value: &#10;5, 10, 20, 30, 45, 60, 120, 180, 300 or 900" errorTitle="Invalid value" operator="between" prompt="Valid values (in seconds):&#10;5, 10, 20, 30, 45, 60, 120, 180, 300 or 900" promptTitle="TIME" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H4" type="list">
+    <dataValidation allowBlank="true" error="Enter a valid value: &#10;5, 10, 20, 30, 45, 60, 120, 180, 300 or 900" errorTitle="Invalid value" operator="between" prompt="Valid values (in seconds):&#10;5, 10, 20, 30, 45, 60, 120, 180, 300 or 900" promptTitle="TIME" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:H18" type="list">
       <formula1>"5,10,20,30,45,60,120,180,300,900"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="E.g. If &quot;Option 2&quot; is the correct answer, enter 2 here. &#10;For multi-select questions, separate the option numbers with a comma. Eg: 1,2" promptTitle="Correct Answer" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G1:G2 G4" type="list">
+    <dataValidation allowBlank="true" operator="between" prompt="E.g. If &quot;Option 2&quot; is the correct answer, enter 2 here. &#10;For multi-select questions, separate the option numbers with a comma. Eg: 1,2" promptTitle="Correct Answer" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="G1:G4 G6:G18" type="list">
       <formula1>"1,2,3,4,5"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Enter a valid value:&#10;1, 2, 3, 4 or 5" errorTitle="Invalid value " operator="between" prompt="E.g. If &quot;Option 2&quot; is the correct answer, enter 2 here." promptTitle="Correct Answer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G3" type="list">
+    <dataValidation allowBlank="true" error="Enter a valid value:&#10;1, 2, 3, 4 or 5" errorTitle="Invalid value " operator="between" prompt="E.g. If &quot;Option 2&quot; is the correct answer, enter 2 here." promptTitle="Correct Answer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G5" type="list">
       <formula1>"1,2,3,4,5"</formula1>
       <formula2>0</formula2>
     </dataValidation>
